--- a/biology/Botanique/Bernard_Hyland/Bernard_Hyland.xlsx
+++ b/biology/Botanique/Bernard_Hyland/Bernard_Hyland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Patrick Matthew Hyland (né en 1937) est un botaniste australien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyland contribue de manière significative à la compréhension des plantes australiennes, en particulier des plantes de la forêt humide. Ses contributions incluent de nombreuses activités. Il recueille dix-huit mille spécimens. Il nomme et décrit scientifiquement des centaines d'espèces, en particulier des espèces d'Australie et de son lieu de travail, les tropiques humides du Queensland. Il possède une expertise particulière dans la riche diversité d’espèces des familles de plantes Lauraceae et Myrtaceae dans les forêts tropicales australiennes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyland contribue de manière significative à la compréhension des plantes australiennes, en particulier des plantes de la forêt humide. Ses contributions incluent de nombreuses activités. Il recueille dix-huit mille spécimens. Il nomme et décrit scientifiquement des centaines d'espèces, en particulier des espèces d'Australie et de son lieu de travail, les tropiques humides du Queensland. Il possède une expertise particulière dans la riche diversité d’espèces des familles de plantes Lauraceae et Myrtaceae dans les forêts tropicales australiennes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Plantes baptisées en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hylandia décrit en 1974 par Herbert K. Airy Shaw et les espèces suivantes ont des noms en son honneur[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hylandia décrit en 1974 par Herbert K. Airy Shaw et les espèces suivantes ont des noms en son honneur :
 Alpinia hylandii
 Antidesma hylandii
 Ardisia hylandii
